--- a/data/positive_signals/Indirectly connected (A-X-B) - Valdecoxib - Acute myocardial infarction.xlsx
+++ b/data/positive_signals/Indirectly connected (A-X-B) - Valdecoxib - Acute myocardial infarction.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="167">
   <si>
     <t>pathWeight</t>
   </si>
@@ -188,186 +188,153 @@
     <t>acute myocardial infarction</t>
   </si>
   <si>
-    <t>83076000</t>
+    <t>16828522</t>
   </si>
   <si>
     <t>indicates</t>
   </si>
   <si>
-    <t>187237200</t>
+    <t>56525087</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>59626028</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>99626907</t>
+  </si>
+  <si>
+    <t>is manifestation of</t>
+  </si>
+  <si>
+    <t>52058805</t>
+  </si>
+  <si>
+    <t>110719483</t>
+  </si>
+  <si>
+    <t>does not predispose</t>
+  </si>
+  <si>
+    <t>53650029</t>
+  </si>
+  <si>
+    <t>87539133</t>
+  </si>
+  <si>
+    <t>occurs in</t>
+  </si>
+  <si>
+    <t>137951932</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>104170396</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>64024508</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>53212192</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>51656552</t>
+  </si>
+  <si>
+    <t>precedes</t>
+  </si>
+  <si>
+    <t>61640450</t>
+  </si>
+  <si>
+    <t>125407033</t>
+  </si>
+  <si>
+    <t>51351609</t>
+  </si>
+  <si>
+    <t>65242313</t>
+  </si>
+  <si>
+    <t>51885696</t>
+  </si>
+  <si>
+    <t>86053247</t>
+  </si>
+  <si>
+    <t>complicates</t>
+  </si>
+  <si>
+    <t>137253646</t>
+  </si>
+  <si>
+    <t>137253645</t>
+  </si>
+  <si>
+    <t>is parent of</t>
+  </si>
+  <si>
+    <t>121020977</t>
   </si>
   <si>
     <t>does not coexist with</t>
   </si>
   <si>
-    <t>118271622</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>152022042</t>
-  </si>
-  <si>
-    <t>occurs in</t>
-  </si>
-  <si>
-    <t>122894981</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>119522434</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>117859968</t>
-  </si>
-  <si>
-    <t>precedes</t>
-  </si>
-  <si>
-    <t>117556026</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>160084701</t>
-  </si>
-  <si>
-    <t>complicates</t>
-  </si>
-  <si>
-    <t>130414597</t>
-  </si>
-  <si>
-    <t>predisposes</t>
-  </si>
-  <si>
-    <t>120457996</t>
-  </si>
-  <si>
-    <t>131613272</t>
-  </si>
-  <si>
-    <t>is manifestation of</t>
-  </si>
-  <si>
-    <t>176928181</t>
-  </si>
-  <si>
-    <t>does not predispose</t>
-  </si>
-  <si>
-    <t>125815662</t>
-  </si>
-  <si>
-    <t>118101666</t>
-  </si>
-  <si>
-    <t>152525238</t>
-  </si>
-  <si>
-    <t>128040990</t>
-  </si>
-  <si>
-    <t>203443980</t>
-  </si>
-  <si>
-    <t>is associated with</t>
-  </si>
-  <si>
-    <t>191618491</t>
-  </si>
-  <si>
-    <t>119940066</t>
-  </si>
-  <si>
-    <t>165860979</t>
-  </si>
-  <si>
-    <t>170375799</t>
-  </si>
-  <si>
-    <t>203443977</t>
-  </si>
-  <si>
-    <t>is parent of</t>
-  </si>
-  <si>
-    <t>204146472</t>
-  </si>
-  <si>
-    <t>760841</t>
-  </si>
-  <si>
-    <t>domestic rabbit</t>
+    <t>93918631</t>
+  </si>
+  <si>
+    <t>54108759</t>
+  </si>
+  <si>
+    <t>4048026</t>
+  </si>
+  <si>
+    <t>lipopolysaccharides</t>
+  </si>
+  <si>
+    <t>18985822</t>
+  </si>
+  <si>
+    <t>78280679</t>
+  </si>
+  <si>
+    <t>4028728</t>
+  </si>
+  <si>
+    <t>house mice</t>
   </si>
   <si>
     <t>Living Beings</t>
   </si>
   <si>
-    <t>77661018</t>
+    <t>9366917</t>
   </si>
   <si>
     <t>interacts with</t>
   </si>
   <si>
-    <t>117885364</t>
+    <t>84814152</t>
   </si>
   <si>
     <t>is process of</t>
   </si>
   <si>
-    <t>133368</t>
-  </si>
-  <si>
-    <t>homo sapiens</t>
-  </si>
-  <si>
-    <t>76430477</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>119172521</t>
-  </si>
-  <si>
-    <t>183707241</t>
-  </si>
-  <si>
-    <t>136083313</t>
-  </si>
-  <si>
-    <t>4048026</t>
-  </si>
-  <si>
-    <t>lipopolysaccharides</t>
-  </si>
-  <si>
-    <t>85131724</t>
-  </si>
-  <si>
-    <t>144763692</t>
-  </si>
-  <si>
-    <t>4028728</t>
-  </si>
-  <si>
-    <t>house mice</t>
-  </si>
-  <si>
-    <t>75848472</t>
-  </si>
-  <si>
-    <t>151193507</t>
-  </si>
-  <si>
     <t>1351957</t>
   </si>
   <si>
@@ -377,25 +344,25 @@
     <t>Genes &amp; Molecular Sequences</t>
   </si>
   <si>
-    <t>83984760</t>
-  </si>
-  <si>
-    <t>94612093</t>
+    <t>17595074</t>
+  </si>
+  <si>
+    <t>28232685</t>
+  </si>
+  <si>
+    <t>gene product is biomarker type</t>
+  </si>
+  <si>
+    <t>28232687</t>
   </si>
   <si>
     <t>gene product variant causes</t>
   </si>
   <si>
-    <t>94612092</t>
-  </si>
-  <si>
-    <t>gene product is biomarker type</t>
-  </si>
-  <si>
-    <t>187460070</t>
-  </si>
-  <si>
-    <t>152836974</t>
+    <t>121249222</t>
+  </si>
+  <si>
+    <t>86403106</t>
   </si>
   <si>
     <t>5793253</t>
@@ -404,28 +371,73 @@
     <t>rheumatoid arthritis</t>
   </si>
   <si>
-    <t>83075994</t>
+    <t>16828516</t>
   </si>
   <si>
     <t>treats</t>
   </si>
   <si>
-    <t>166532553</t>
-  </si>
-  <si>
-    <t>191387282</t>
-  </si>
-  <si>
-    <t>182537850</t>
-  </si>
-  <si>
-    <t>135527274</t>
-  </si>
-  <si>
-    <t>149761554</t>
-  </si>
-  <si>
-    <t>122589473</t>
+    <t>69132862</t>
+  </si>
+  <si>
+    <t>125175969</t>
+  </si>
+  <si>
+    <t>116331734</t>
+  </si>
+  <si>
+    <t>100294245</t>
+  </si>
+  <si>
+    <t>56203975</t>
+  </si>
+  <si>
+    <t>83296283</t>
+  </si>
+  <si>
+    <t>4705381</t>
+  </si>
+  <si>
+    <t>matrix metalloproteinase-9 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8605683</t>
+  </si>
+  <si>
+    <t>does not inhibit</t>
+  </si>
+  <si>
+    <t>85341112</t>
+  </si>
+  <si>
+    <t>111065796</t>
+  </si>
+  <si>
+    <t>augments</t>
+  </si>
+  <si>
+    <t>63262380</t>
+  </si>
+  <si>
+    <t>88287709</t>
+  </si>
+  <si>
+    <t>802574</t>
+  </si>
+  <si>
+    <t>receptors, adrenergic, beta-1</t>
+  </si>
+  <si>
+    <t>8645230</t>
+  </si>
+  <si>
+    <t>109982643</t>
+  </si>
+  <si>
+    <t>51360064</t>
+  </si>
+  <si>
+    <t>disrupts</t>
   </si>
   <si>
     <t>746283</t>
@@ -434,37 +446,10 @@
     <t>substance-p receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74997105</t>
-  </si>
-  <si>
-    <t>does not inhibit</t>
-  </si>
-  <si>
-    <t>194926607</t>
-  </si>
-  <si>
-    <t>4705381</t>
-  </si>
-  <si>
-    <t>matrix metalloproteinase-9 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74991956</t>
-  </si>
-  <si>
-    <t>151790930</t>
-  </si>
-  <si>
-    <t>129631454</t>
-  </si>
-  <si>
-    <t>154457887</t>
-  </si>
-  <si>
-    <t>177259836</t>
-  </si>
-  <si>
-    <t>augments</t>
+    <t>8610760</t>
+  </si>
+  <si>
+    <t>128771240</t>
   </si>
   <si>
     <t>4394972</t>
@@ -473,10 +458,10 @@
     <t>neutrophil elastase (homo sapiens)</t>
   </si>
   <si>
-    <t>74991947</t>
-  </si>
-  <si>
-    <t>148546050</t>
+    <t>8605678</t>
+  </si>
+  <si>
+    <t>82166218</t>
   </si>
   <si>
     <t>3382755</t>
@@ -485,13 +470,13 @@
     <t>b2 bradykinin receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>75029455</t>
-  </si>
-  <si>
-    <t>169025462</t>
-  </si>
-  <si>
-    <t>169322004</t>
+    <t>8645261</t>
+  </si>
+  <si>
+    <t>103107829</t>
+  </si>
+  <si>
+    <t>102815297</t>
   </si>
   <si>
     <t>3149407</t>
@@ -500,10 +485,10 @@
     <t>type-2 angiotensin ii receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>75029448</t>
-  </si>
-  <si>
-    <t>165821321</t>
+    <t>8645255</t>
+  </si>
+  <si>
+    <t>99625440</t>
   </si>
   <si>
     <t>3103480</t>
@@ -512,10 +497,10 @@
     <t>caspase-1 (homo sapiens)</t>
   </si>
   <si>
-    <t>74991943</t>
-  </si>
-  <si>
-    <t>164238096</t>
+    <t>8605673</t>
+  </si>
+  <si>
+    <t>98031815</t>
   </si>
   <si>
     <t>2805035</t>
@@ -524,10 +509,10 @@
     <t>mitogen-activated protein kinase 14 (homo sapiens)</t>
   </si>
   <si>
-    <t>74992434</t>
-  </si>
-  <si>
-    <t>196105773</t>
+    <t>8606005</t>
+  </si>
+  <si>
+    <t>129901955</t>
   </si>
 </sst>
 </file>
@@ -732,7 +717,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>194.0</v>
+        <v>1424.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -789,126 +774,126 @@
         <v>66</v>
       </c>
       <c r="T2" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>68</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>69</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" t="s">
         <v>70</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>71</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>72</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>73</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>74</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>75</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>76</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>77</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>78</v>
       </c>
-      <c r="AF2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>79</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>80</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>81</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>82</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM2" t="s">
         <v>83</v>
       </c>
-      <c r="AL2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" t="s">
         <v>84</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>85</v>
       </c>
       <c r="AP2" t="s">
         <v>75</v>
       </c>
       <c r="AQ2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS2" t="s">
         <v>86</v>
       </c>
-      <c r="AR2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU2" t="s">
         <v>87</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AV2" t="s">
         <v>88</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AW2" t="s">
         <v>89</v>
       </c>
-      <c r="AV2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY2" t="s">
         <v>90</v>
       </c>
-      <c r="AX2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>91</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>80</v>
       </c>
       <c r="BA2" t="s">
         <v>92</v>
       </c>
       <c r="BB2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="BC2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BD2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="BE2" t="s">
         <v>95</v>
       </c>
       <c r="BF2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>183.0</v>
+        <v>38.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -926,7 +911,7 @@
         <v>97</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
@@ -938,21 +923,21 @@
         <v>55</v>
       </c>
       <c r="K3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="s">
         <v>99</v>
       </c>
-      <c r="L3" t="s">
-        <v>100</v>
-      </c>
-      <c r="M3" t="s">
-        <v>101</v>
-      </c>
       <c r="N3" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>166.0</v>
+        <v>35.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -964,13 +949,13 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
@@ -982,33 +967,21 @@
         <v>55</v>
       </c>
       <c r="K4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" t="s">
         <v>105</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>106</v>
-      </c>
-      <c r="M4" t="s">
-        <v>107</v>
-      </c>
-      <c r="N4" t="s">
-        <v>102</v>
-      </c>
-      <c r="O4" t="s">
-        <v>108</v>
-      </c>
-      <c r="P4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>109</v>
-      </c>
-      <c r="R4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>38.0</v>
+        <v>30.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -1020,13 +993,13 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="H5" t="s">
         <v>56</v>
@@ -1038,21 +1011,39 @@
         <v>55</v>
       </c>
       <c r="K5" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N5" t="s">
         <v>112</v>
       </c>
-      <c r="L5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>113</v>
       </c>
-      <c r="N5" t="s">
-        <v>88</v>
+      <c r="P5" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>115</v>
+      </c>
+      <c r="R5" t="s">
+        <v>73</v>
+      </c>
+      <c r="S5" t="s">
+        <v>116</v>
+      </c>
+      <c r="T5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>35.0</v>
+        <v>24.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -1064,13 +1055,13 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
@@ -1082,21 +1073,51 @@
         <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N6" t="s">
-        <v>102</v>
+        <v>63</v>
+      </c>
+      <c r="O6" t="s">
+        <v>122</v>
+      </c>
+      <c r="P6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" t="s">
+        <v>124</v>
+      </c>
+      <c r="T6" t="s">
+        <v>63</v>
+      </c>
+      <c r="U6" t="s">
+        <v>125</v>
+      </c>
+      <c r="V6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W6" t="s">
+        <v>126</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30.0</v>
+        <v>12.0</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -1108,13 +1129,13 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G7" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
@@ -1126,39 +1147,39 @@
         <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="L7" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="M7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N7" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="O7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="P7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Q7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="R7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="T7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>24.0</v>
+        <v>11.0</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -1170,13 +1191,13 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -1188,46 +1209,22 @@
         <v>55</v>
       </c>
       <c r="K8" t="s">
+        <v>138</v>
+      </c>
+      <c r="L8" t="s">
         <v>130</v>
       </c>
-      <c r="L8" t="s">
-        <v>131</v>
-      </c>
       <c r="M8" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="P8" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>134</v>
-      </c>
-      <c r="R8" t="s">
-        <v>67</v>
-      </c>
-      <c r="S8" t="s">
-        <v>135</v>
-      </c>
-      <c r="T8" t="s">
-        <v>63</v>
-      </c>
-      <c r="U8" t="s">
-        <v>136</v>
-      </c>
-      <c r="V8" t="s">
-        <v>75</v>
-      </c>
-      <c r="W8" t="s">
-        <v>137</v>
-      </c>
-      <c r="X8" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
@@ -1244,10 +1241,10 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G9" t="s">
         <v>52</v>
@@ -1262,16 +1259,16 @@
         <v>55</v>
       </c>
       <c r="K9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L9" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N9" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -1288,10 +1285,10 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
@@ -1306,34 +1303,16 @@
         <v>55</v>
       </c>
       <c r="K10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L10" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="N10" t="s">
-        <v>69</v>
-      </c>
-      <c r="O10" t="s">
-        <v>147</v>
-      </c>
-      <c r="P10" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>148</v>
-      </c>
-      <c r="R10" t="s">
-        <v>88</v>
-      </c>
-      <c r="S10" t="s">
-        <v>149</v>
-      </c>
-      <c r="T10" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -1350,10 +1329,10 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" t="s">
         <v>151</v>
-      </c>
-      <c r="F11" t="s">
-        <v>152</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -1368,16 +1347,22 @@
         <v>55</v>
       </c>
       <c r="K11" t="s">
+        <v>152</v>
+      </c>
+      <c r="L11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="s">
         <v>153</v>
       </c>
-      <c r="L11" t="s">
-        <v>141</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O11" t="s">
         <v>154</v>
       </c>
-      <c r="N11" t="s">
-        <v>88</v>
+      <c r="P11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12">
@@ -1415,19 +1400,13 @@
         <v>157</v>
       </c>
       <c r="L12" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="M12" t="s">
         <v>158</v>
       </c>
       <c r="N12" t="s">
-        <v>67</v>
-      </c>
-      <c r="O12" t="s">
-        <v>159</v>
-      </c>
-      <c r="P12" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -1444,10 +1423,10 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" t="s">
         <v>160</v>
-      </c>
-      <c r="F13" t="s">
-        <v>161</v>
       </c>
       <c r="G13" t="s">
         <v>52</v>
@@ -1462,16 +1441,16 @@
         <v>55</v>
       </c>
       <c r="K13" t="s">
+        <v>161</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="s">
         <v>162</v>
       </c>
-      <c r="L13" t="s">
-        <v>141</v>
-      </c>
-      <c r="M13" t="s">
-        <v>163</v>
-      </c>
       <c r="N13" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
@@ -1488,10 +1467,10 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" t="s">
         <v>164</v>
-      </c>
-      <c r="F14" t="s">
-        <v>165</v>
       </c>
       <c r="G14" t="s">
         <v>52</v>
@@ -1506,60 +1485,16 @@
         <v>55</v>
       </c>
       <c r="K14" t="s">
+        <v>165</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="s">
         <v>166</v>
       </c>
-      <c r="L14" t="s">
-        <v>141</v>
-      </c>
-      <c r="M14" t="s">
-        <v>167</v>
-      </c>
       <c r="N14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>168</v>
-      </c>
-      <c r="F15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" t="s">
-        <v>55</v>
-      </c>
-      <c r="K15" t="s">
-        <v>170</v>
-      </c>
-      <c r="L15" t="s">
-        <v>141</v>
-      </c>
-      <c r="M15" t="s">
-        <v>171</v>
-      </c>
-      <c r="N15" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
